--- a/Elizabeth/EXCEL.xlsx
+++ b/Elizabeth/EXCEL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="20640" windowHeight="10050" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="20640" windowHeight="10050" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="CONTABLE" sheetId="11" r:id="rId9"/>
     <sheet name="LIBRO DIARI" sheetId="13" r:id="rId10"/>
     <sheet name="DIAG PROCESO" sheetId="12" r:id="rId11"/>
+    <sheet name="LIBRO MAYOR" sheetId="14" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -28,6 +28,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Eugenio Arevalo</author>
+    <author>Usuario</author>
   </authors>
   <commentList>
     <comment ref="A6" authorId="0">
@@ -102,6 +103,126 @@
           <t xml:space="preserve">
 SON BIENES DE CAMBIO
 Adquiridos para su venta en el mismo estado (mercadería de reventa)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G24" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+capital social y aporte de propietarios</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I24" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Bancos, prestamos.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I25" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Impuesto al produto,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I26" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ingresa librerias, forma parte del activo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I27" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+desglosado el impuesto y el precio neto del producto.</t>
         </r>
       </text>
     </comment>
@@ -203,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="300">
   <si>
     <t>fila[]</t>
   </si>
@@ -1025,13 +1146,91 @@
   </si>
   <si>
     <t>DETALLE FACTURA</t>
+  </si>
+  <si>
+    <t>patrimonio</t>
+  </si>
+  <si>
+    <t>servicios</t>
+  </si>
+  <si>
+    <t>1- luz</t>
+  </si>
+  <si>
+    <t>2- gas</t>
+  </si>
+  <si>
+    <t>3- agua</t>
+  </si>
+  <si>
+    <t>4- telefonia</t>
+  </si>
+  <si>
+    <t>5- seguros</t>
+  </si>
+  <si>
+    <t>compras</t>
+  </si>
+  <si>
+    <t>acreedor</t>
+  </si>
+  <si>
+    <t>proveedor</t>
+  </si>
+  <si>
+    <t>bien de uso</t>
+  </si>
+  <si>
+    <t>(ver, se netea?)</t>
+  </si>
+  <si>
+    <t>ventas</t>
+  </si>
+  <si>
+    <t>mercaderias</t>
+  </si>
+  <si>
+    <t>impuesto</t>
+  </si>
+  <si>
+    <t>precio neto</t>
+  </si>
+  <si>
+    <t>capital inicial</t>
+  </si>
+  <si>
+    <t>resultados ac</t>
+  </si>
+  <si>
+    <t>resultados ej</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>MERCAD</t>
+  </si>
+  <si>
+    <t>CAJA</t>
+  </si>
+  <si>
+    <t>IVA C</t>
+  </si>
+  <si>
+    <t>IVA D</t>
+  </si>
+  <si>
+    <t>SERVICIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1157,6 +1356,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -1251,7 +1456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1393,6 +1598,7 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1434,7 +1640,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1985,6 +2191,105 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="2 Conector recto de flecha"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="6886575" y="542926"/>
+          <a:ext cx="1962150" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="4 Conector recto de flecha"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="9696450" y="447675"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2324,8 +2629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3219,6 +3524,468 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75">
+      <c r="A1" s="23">
+        <v>100</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75">
+      <c r="A2" s="20">
+        <v>101</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H2" s="42">
+        <v>202</v>
+      </c>
+      <c r="K2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L2" s="42">
+        <v>401</v>
+      </c>
+      <c r="N2" t="s">
+        <v>296</v>
+      </c>
+      <c r="O2" s="42">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75">
+      <c r="A3" s="22">
+        <v>102</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" t="s">
+        <v>293</v>
+      </c>
+      <c r="I3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L3" t="s">
+        <v>293</v>
+      </c>
+      <c r="M3" t="s">
+        <v>294</v>
+      </c>
+      <c r="O3" t="s">
+        <v>293</v>
+      </c>
+      <c r="P3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75">
+      <c r="A4" s="22">
+        <v>103</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="I4">
+        <v>5000</v>
+      </c>
+      <c r="L4">
+        <v>4000</v>
+      </c>
+      <c r="P4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75">
+      <c r="A5" s="22">
+        <v>104</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5">
+        <v>5000</v>
+      </c>
+      <c r="M5">
+        <v>4000</v>
+      </c>
+      <c r="O5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75">
+      <c r="A6" s="20">
+        <v>105</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="P6">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75">
+      <c r="A7" s="20">
+        <v>106</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75">
+      <c r="A8" s="20">
+        <v>107</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" t="s">
+        <v>295</v>
+      </c>
+      <c r="H8" s="42">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>298</v>
+      </c>
+      <c r="L8" s="42">
+        <v>203</v>
+      </c>
+      <c r="N8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O8" s="42">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75">
+      <c r="A9" s="20">
+        <v>108</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" t="s">
+        <v>293</v>
+      </c>
+      <c r="I9" t="s">
+        <v>294</v>
+      </c>
+      <c r="L9" t="s">
+        <v>293</v>
+      </c>
+      <c r="M9" t="s">
+        <v>294</v>
+      </c>
+      <c r="O9" t="s">
+        <v>293</v>
+      </c>
+      <c r="P9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75">
+      <c r="A10" s="23">
+        <v>200</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10">
+        <v>3950</v>
+      </c>
+      <c r="M10">
+        <v>1050</v>
+      </c>
+      <c r="O10">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75">
+      <c r="A11" s="20">
+        <v>201</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75">
+      <c r="A12" s="22">
+        <v>202</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75">
+      <c r="A13" s="22">
+        <v>203</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75">
+      <c r="A14" s="22">
+        <v>204</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" t="s">
+        <v>299</v>
+      </c>
+      <c r="H14" s="42">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75">
+      <c r="A15" s="22">
+        <v>205</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" t="s">
+        <v>293</v>
+      </c>
+      <c r="I15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75">
+      <c r="A16" s="22">
+        <v>206</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="I16">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75">
+      <c r="A17" s="20">
+        <v>208</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="I17">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75">
+      <c r="A18" s="20">
+        <v>209</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="I18">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75">
+      <c r="A19" s="20">
+        <v>210</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75">
+      <c r="A20" s="23">
+        <v>300</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75">
+      <c r="A21" s="20">
+        <v>301</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75">
+      <c r="A22" s="20">
+        <v>302</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75">
+      <c r="A23" s="20">
+        <v>303</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75">
+      <c r="A24" s="20">
+        <v>304</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75">
+      <c r="A25" s="20">
+        <v>305</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75">
+      <c r="A26" s="23">
+        <v>400</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75">
+      <c r="A27" s="22">
+        <v>401</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75">
+      <c r="A28" s="20">
+        <v>402</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75">
+      <c r="A29" s="20">
+        <v>403</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75">
+      <c r="A30" s="23">
+        <v>500</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75">
+      <c r="A31" s="22">
+        <v>501</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75">
+      <c r="A32" s="20">
+        <v>502</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75">
+      <c r="A33" s="22">
+        <v>503</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75">
+      <c r="A34" s="22">
+        <v>506</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75">
+      <c r="A35" s="22">
+        <v>507</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75">
+      <c r="A36" s="20">
+        <v>508</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75">
+      <c r="A37" s="22">
+        <v>509</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75">
+      <c r="A38" s="22">
+        <v>513</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75">
+      <c r="A39" s="20">
+        <v>515</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75">
+      <c r="A40" s="20">
+        <v>516</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
@@ -3237,8 +4004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4077,7 +4844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -4655,10 +5422,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B41"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4773,7 +5540,7 @@
       <c r="A13" s="22">
         <v>202</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="65" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4781,7 +5548,7 @@
       <c r="A14" s="22">
         <v>203</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="65" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4801,7 +5568,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75">
+    <row r="17" spans="1:11" ht="15.75">
       <c r="A17" s="22">
         <v>206</v>
       </c>
@@ -4809,7 +5576,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75">
+    <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="20">
         <v>208</v>
       </c>
@@ -4817,7 +5584,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75">
+    <row r="19" spans="1:11" ht="15.75">
       <c r="A19" s="20">
         <v>209</v>
       </c>
@@ -4825,7 +5592,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75">
+    <row r="20" spans="1:11" ht="15.75">
       <c r="A20" s="20">
         <v>210</v>
       </c>
@@ -4833,7 +5600,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75">
+    <row r="21" spans="1:11" ht="15.75">
       <c r="A21" s="23">
         <v>300</v>
       </c>
@@ -4841,7 +5608,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75">
+    <row r="22" spans="1:11" ht="15.75">
       <c r="A22" s="20">
         <v>301</v>
       </c>
@@ -4849,58 +5616,112 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75">
+    <row r="23" spans="1:11" ht="15.75">
       <c r="A23" s="20">
         <v>302</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75">
+      <c r="E23" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="K23" s="42" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75">
       <c r="A24" s="20">
         <v>303</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75">
+      <c r="E24" t="s">
+        <v>276</v>
+      </c>
+      <c r="G24" t="s">
+        <v>290</v>
+      </c>
+      <c r="I24" t="s">
+        <v>282</v>
+      </c>
+      <c r="K24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75">
       <c r="A25" s="20">
         <v>304</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75">
+      <c r="E25" t="s">
+        <v>277</v>
+      </c>
+      <c r="G25" t="s">
+        <v>291</v>
+      </c>
+      <c r="I25" t="s">
+        <v>283</v>
+      </c>
+      <c r="K25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75">
       <c r="A26" s="20">
         <v>305</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75">
+      <c r="E26" t="s">
+        <v>278</v>
+      </c>
+      <c r="G26" t="s">
+        <v>292</v>
+      </c>
+      <c r="I26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75">
       <c r="A27" s="23">
         <v>400</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75">
-      <c r="A28" s="22">
+      <c r="E27" t="s">
+        <v>279</v>
+      </c>
+      <c r="I27" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75">
+      <c r="A28" s="65">
         <v>401</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="65" t="s">
         <v>159</v>
       </c>
       <c r="D28" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75">
+      <c r="E28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75">
       <c r="A29" s="20">
         <v>402</v>
       </c>
@@ -4908,7 +5729,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75">
+    <row r="30" spans="1:11" ht="15.75">
       <c r="A30" s="20">
         <v>403</v>
       </c>
@@ -4916,7 +5737,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75">
+    <row r="31" spans="1:11" ht="15.75">
       <c r="A31" s="23">
         <v>500</v>
       </c>
@@ -4924,18 +5745,18 @@
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75">
-      <c r="A32" s="22">
+    <row r="32" spans="1:11" ht="15.75">
+      <c r="A32" s="65">
         <v>501</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="65" t="s">
         <v>161</v>
       </c>
       <c r="C32" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75">
+    <row r="33" spans="1:3" ht="15.75">
       <c r="A33" s="20">
         <v>502</v>
       </c>
@@ -4943,31 +5764,31 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75">
-      <c r="A34" s="22">
+    <row r="34" spans="1:3" ht="15.75">
+      <c r="A34" s="65">
         <v>503</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="65" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75">
-      <c r="A35" s="22">
+    <row r="35" spans="1:3" ht="15.75">
+      <c r="A35" s="65">
         <v>506</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="65" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75">
-      <c r="A36" s="22">
+    <row r="36" spans="1:3" ht="15.75">
+      <c r="A36" s="65">
         <v>507</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="65" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75">
+    <row r="37" spans="1:3" ht="15.75">
       <c r="A37" s="20">
         <v>508</v>
       </c>
@@ -4975,36 +5796,42 @@
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75">
-      <c r="A38" s="22">
+    <row r="38" spans="1:3" ht="15.75">
+      <c r="A38" s="65">
         <v>509</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="65" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75">
-      <c r="A39" s="22">
+    <row r="39" spans="1:3" ht="15.75">
+      <c r="A39" s="65">
         <v>513</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="65" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75">
+    <row r="40" spans="1:3" ht="15.75">
       <c r="A40" s="20">
         <v>515</v>
       </c>
       <c r="B40" s="20" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75">
+      <c r="C40" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75">
       <c r="A41" s="20">
         <v>516</v>
       </c>
       <c r="B41" s="20" t="s">
         <v>150</v>
+      </c>
+      <c r="C41" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
